--- a/DA/data/alldata.xlsx
+++ b/DA/data/alldata.xlsx
@@ -4,21 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="12075" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="12075" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="terrain" sheetId="2" r:id="rId1"/>
     <sheet name="location" sheetId="1" r:id="rId2"/>
     <sheet name="marine" sheetId="3" r:id="rId3"/>
     <sheet name="action" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="event" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="221">
   <si>
     <t>id</t>
   </si>
@@ -83,9 +84,6 @@
     <t>Dark Corner</t>
   </si>
   <si>
-    <t>["Door","Dark Corner","Corridor","Ventilation Duct"]</t>
-  </si>
-  <si>
     <t>[2,5,6,3]</t>
   </si>
   <si>
@@ -251,9 +249,6 @@
     <t>[2,4,5,3]</t>
   </si>
   <si>
-    <t>Activate: Place 1 support token on this card. When travelling, the current player may first splay 1 Genestealer in the formation for each token on this card.</t>
-  </si>
-  <si>
     <t>Activate: Place this card in your hand. You may discard this card after 1 of your defending Space marines rolls the die to make the attack miss.</t>
   </si>
   <si>
@@ -314,9 +309,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>colour</t>
-  </si>
-  <si>
     <t>Red</t>
   </si>
   <si>
@@ -494,37 +486,202 @@
     <t>Brother Omnio</t>
   </si>
   <si>
-    <t>SL07</t>
-  </si>
-  <si>
-    <t>SL08</t>
-  </si>
-  <si>
-    <t>SL09</t>
-  </si>
-  <si>
-    <t>SL10</t>
-  </si>
-  <si>
-    <t>SL11</t>
-  </si>
-  <si>
-    <t>SL12</t>
-  </si>
-  <si>
-    <t>SL13</t>
-  </si>
-  <si>
-    <t>SL14</t>
-  </si>
-  <si>
-    <t>SL15</t>
-  </si>
-  <si>
-    <t>SL16</t>
-  </si>
-  <si>
-    <t>SL17</t>
+    <t>swarm</t>
+  </si>
+  <si>
+    <t>action</t>
+  </si>
+  <si>
+    <t>Rewarded Faith</t>
+  </si>
+  <si>
+    <t>tail</t>
+  </si>
+  <si>
+    <t>move</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine. You may discard any number of Support Tokens from him to slay an equal number of Genestealers engaged with him.</t>
+  </si>
+  <si>
+    <t>Stalking from the Shadows</t>
+  </si>
+  <si>
+    <t>head</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine with at least 1 Support Token. DIscard all his Support Tokens.</t>
+  </si>
+  <si>
+    <t>Full Scan</t>
+  </si>
+  <si>
+    <t>tongue</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a blip pile. DIscard the top card of the chosen pile.</t>
+  </si>
+  <si>
+    <t>Gun Jam</t>
+  </si>
+  <si>
+    <t>Flanking Manoeuvre</t>
+  </si>
+  <si>
+    <t>Move all Swarms so that they are behind their engaged Space Marine.</t>
+  </si>
+  <si>
+    <t>Quick Instincts</t>
+  </si>
+  <si>
+    <t>Instinct: CHoose a Space Marine. He may immediately make 1 attack.</t>
+  </si>
+  <si>
+    <t>Second Wind</t>
+  </si>
+  <si>
+    <t>Resupply</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine. Moev all Support Tokens to him from all other Space Marines.</t>
+  </si>
+  <si>
+    <t>Secret Route</t>
+  </si>
+  <si>
+    <t>Enter Formation</t>
+  </si>
+  <si>
+    <t>For my Battle Brothers!</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine that has at least 1 Support TOken (if able). Discard 1 Support Token form him and 1 Genestealer engaged with him (of your choice).</t>
+  </si>
+  <si>
+    <t>Chaos of Battle</t>
+  </si>
+  <si>
+    <t>skull</t>
+  </si>
+  <si>
+    <t>Change every Space Marine's facing.</t>
+  </si>
+  <si>
+    <t>Evasion</t>
+  </si>
+  <si>
+    <t>flank</t>
+  </si>
+  <si>
+    <t>Temporary Sanctuary</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a swarm of Genestealers. Shuffle all cards from the chose swarm into the smallest blip pile.</t>
+  </si>
+  <si>
+    <t>Surrounded</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine. Move all Genestealers (from every position) to the chosen Space Marine's position (do not change their side).</t>
+  </si>
+  <si>
+    <t>Out of Thin Air</t>
+  </si>
+  <si>
+    <t>Instince: Choose a Space Marine. Spawn 2 Genestealers behind him.</t>
+  </si>
+  <si>
+    <t>Psychic Assault</t>
+  </si>
+  <si>
+    <t>Rescue Space Marine</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine that has been slain belonging to a non-eliminated Combat Team. Place the Space Marine card at the bottom of the formation facing the right.</t>
+  </si>
+  <si>
+    <t>Outnumbered</t>
+  </si>
+  <si>
+    <t>Discard all Support Tokens from each Space Marine that is engaged with at least 1 Swarm.</t>
+  </si>
+  <si>
+    <t>The Swarm</t>
+  </si>
+  <si>
+    <t>Place 2 Genestealer cards into each blip pile (from the Genestealer deck).</t>
+  </si>
+  <si>
+    <t>Cleansing Flames</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a SPace Marine and roll a die. If you roll a [skull] slay 2 Genestealers engaged with him (of your choice).</t>
+  </si>
+  <si>
+    <t>They're Everywhere!</t>
+  </si>
+  <si>
+    <t>Spawn 1 Genestealer in front of each Space Marine that is not enagaged with a swarm.</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Combat Team that did not reveal an Attack Action this round. Next round,  that combat team may not play an Attack Action card.</t>
+  </si>
+  <si>
+    <t>If there is a Door terrain card in the formation,  place 2 Support Tokens on it.</t>
+  </si>
+  <si>
+    <t>Each time a player resolves a Move + Activate action card next round, he may first place 1 Support Token in any Space Marine.</t>
+  </si>
+  <si>
+    <t>When a player resolves an Attack Action next round, he may only attack with 1 Space Marine of that Combat Team (instead of both).</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine and roll a die. If you roll a [0] or [1], the space marine is slain.</t>
+  </si>
+  <si>
+    <t>Instinct: Choose a Space Marine. Each time he rolls a [0] while defending next round, the attack misses.</t>
+  </si>
+  <si>
+    <t>spawn</t>
+  </si>
+  <si>
+    <t>team</t>
+  </si>
+  <si>
+    <t>["Door","Dark Corner","Ventilation Duct","Corridor"]</t>
+  </si>
+  <si>
+    <t>Activate: Place 1 support token on this card. When travelling, the current player may first slay 1 Genestealer in the formation for each token on this card.</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>major</t>
+  </si>
+  <si>
+    <t>{"threat":4,"type":"minor"},</t>
+  </si>
+  <si>
+    <t>{"threat":3,"type":"major"},</t>
+  </si>
+  <si>
+    <t>{"threat":2,"type":"minor"},</t>
+  </si>
+  <si>
+    <t>{"threat":4,"type":"major"},</t>
+  </si>
+  <si>
+    <t>{"threat":2,"type":"major"},</t>
+  </si>
+  <si>
+    <t>{"threat":3,"type":"minor"},</t>
+  </si>
+  <si>
+    <t>{"threat":1,"type":"major"},</t>
   </si>
 </sst>
 </file>
@@ -864,10 +1021,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,7 +1033,7 @@
     <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,8 +1049,11 @@
       <c r="E1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -904,10 +1064,14 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>211</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"&amp;C2&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;"""},"</f>
+        <v>{"id":1,"name":"Door","threat":2,"text":"Activate: Place 1 support token on this card. When travelling, the current player may first slay 1 Genestealer in the formation for each token on this card."},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -917,8 +1081,12 @@
       <c r="C3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G9" si="0">"{"""&amp;A$1&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"&amp;C3&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;"""},"</f>
+        <v>{"id":2,"name":"Dark Corner","threat":3,"text":""},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -928,8 +1096,12 @@
       <c r="C4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":3,"name":"Corridor","threat":1,"text":""},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -939,8 +1111,12 @@
       <c r="C5">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":4,"name":"Ventilation Duct","threat":4,"text":""},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -951,10 +1127,14 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":5,"name":"Artefact","threat":1,"text":"Activate: Place this card in your hand. You may discard this card after 1 of your defending Space marines rolls the die to make the attack miss."},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -965,10 +1145,14 @@
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":6,"name":"Control Panel","threat":2,"text":"Activate: Use the current Location card's "Activae Control Panel" ability."},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -979,10 +1163,14 @@
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":7,"name":"Promethean Tank","threat":3,"text":"Acivate: Discard this Terrain card ans slay all Genestealers on this position. Then roll a die, if you roll [0], slay this Space Marine."},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -993,7 +1181,16 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>79</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":8,"name":"Spore Chimney","threat":4,"text":"Activate: Rolla die, if you roll [skull], discard this Terrain card."},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1005,9 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="M24" sqref="M1:M24"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1034,13 +1229,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -1049,7 +1244,7 @@
         <v>9</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J1" t="s">
         <v>4</v>
@@ -1058,7 +1253,7 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1075,10 +1270,10 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
+        <v>210</v>
+      </c>
+      <c r="F2" t="s">
         <v>21</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
       </c>
       <c r="G2">
         <v>5</v>
@@ -1087,17 +1282,17 @@
         <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M2" t="str">
         <f t="shared" ref="M2:M5" si="0">"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;""","""&amp;D$1&amp;""":"&amp;D2&amp;","""&amp;E$1&amp;""":"&amp;E2&amp;","""&amp;F$1&amp;""":"&amp;IF(F2="","""""",F2)&amp;",""spawn"":{""major"":"&amp;IF(G2="",0,G2)&amp;",""minor"":"&amp;IF(H2="",0,H2)&amp;"},"""&amp;I$1&amp;""":"&amp;IF(I2="","""""",I2)&amp;","""&amp;J$1&amp;""":"""&amp;J2&amp;""","""&amp;K$1&amp;""":"""&amp;K2&amp;"""},"</f>
-        <v>{"id":1,"name":"Void Lock","text":"Setup for 3 or 6 players (12 Space Marines)","blipcount":[9,9],"terrain":["Door","Dark Corner","Corridor","Ventilation Duct"],"terrainlocation":[2,5,6,3],"spawn":{"major":5,"minor":3},"setup":["1A","2","3","4"],"deck":"0","set":"SL06"},</v>
+        <v>{"id":1,"name":"Void Lock","text":"Setup for 3 or 6 players (12 Space Marines)","blipcount":[9,9],"terrain":["Door","Dark Corner","Ventilation Duct","Corridor"],"terrainlocation":[2,5,6,3],"spawn":{"major":5,"minor":3},"setup":["1A","2","3","4"],"deck":"0","set":"SL06"},</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -1108,16 +1303,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="F3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G3">
         <v>4</v>
@@ -1126,17 +1321,17 @@
         <v>2</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":2,"name":"Void Lock","text":"Setup for 5 players (10 Space Marines)","blipcount":[8,8],"terrain":["Door","Dark Corner","Corridor","Ventilation Duct"],"terrainlocation":[2,4,5,3],"spawn":{"major":4,"minor":2},"setup":["1B","2","3","4"],"deck":"0","set":"SL06"},</v>
+        <v>{"id":2,"name":"Void Lock","text":"Setup for 5 players (10 Space Marines)","blipcount":[8,8],"terrain":["Door","Dark Corner","Ventilation Duct","Corridor"],"terrainlocation":[2,4,5,3],"spawn":{"major":4,"minor":2},"setup":["1B","2","3","4"],"deck":"0","set":"SL06"},</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -1147,16 +1342,16 @@
         <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G4">
         <v>3</v>
@@ -1165,17 +1360,17 @@
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":3,"name":"Void Lock","text":"Setup for 2 or 4 players (8 Space Marines)","blipcount":[7,7],"terrain":["Door","Dark Corner","Corridor","Ventilation Duct"],"terrainlocation":[1,3,4,2],"spawn":{"major":3,"minor":1},"setup":["1C","2","3","4"],"deck":"0","set":"SL06"},</v>
+        <v>{"id":3,"name":"Void Lock","text":"Setup for 2 or 4 players (8 Space Marines)","blipcount":[7,7],"terrain":["Door","Dark Corner","Ventilation Duct","Corridor"],"terrainlocation":[1,3,4,2],"spawn":{"major":3,"minor":1},"setup":["1C","2","3","4"],"deck":"0","set":"SL06"},</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -1186,16 +1381,16 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="F5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5">
         <v>2</v>
@@ -1204,17 +1399,17 @@
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":4,"name":"Void Lock","text":"Setup for 3 players (6 Space Marines)","blipcount":[6,6],"terrain":["Door","Dark Corner","Corridor","Ventilation Duct"],"terrainlocation":[1,3,3,2],"spawn":{"major":2,"minor":1},"setup":["2","3","4"],"deck":"0","set":"SL06"},</v>
+        <v>{"id":4,"name":"Void Lock","text":"Setup for 3 players (6 Space Marines)","blipcount":[6,6],"terrain":["Door","Dark Corner","Ventilation Duct","Corridor"],"terrainlocation":[1,3,3,2],"spawn":{"major":2,"minor":1},"setup":["2","3","4"],"deck":"0","set":"SL06"},</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -1222,19 +1417,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M6" t="str">
         <f>"{"""&amp;A$1&amp;""":"&amp;A6&amp;","""&amp;B$1&amp;""":"""&amp;B6&amp;""","""&amp;C$1&amp;""":"""&amp;C6&amp;""","""&amp;D$1&amp;""":"&amp;D6&amp;","""&amp;E$1&amp;""":"&amp;E6&amp;","""&amp;F$1&amp;""":"&amp;IF(F6="","""""",F6)&amp;",""spawn"":{""major"":"&amp;IF(G6="",0,G6)&amp;",""minor"":"&amp;IF(H6="",0,H6)&amp;"},"""&amp;I$1&amp;""":"&amp;IF(I6="","""""",I6)&amp;","""&amp;J$1&amp;""":"""&amp;J6&amp;""","""&amp;K$1&amp;""":"""&amp;K6&amp;"""},"</f>
@@ -1246,25 +1441,25 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M7" t="str">
         <f t="shared" ref="M7:M23" si="1">"{"""&amp;A$1&amp;""":"&amp;A7&amp;","""&amp;B$1&amp;""":"""&amp;B7&amp;""","""&amp;C$1&amp;""":"""&amp;C7&amp;""","""&amp;D$1&amp;""":"&amp;D7&amp;","""&amp;E$1&amp;""":"&amp;E7&amp;","""&amp;F$1&amp;""":"&amp;IF(F7="","""""",F7)&amp;",""spawn"":{""major"":"&amp;IF(G7="",0,G7)&amp;",""minor"":"&amp;IF(H7="",0,H7)&amp;"},"""&amp;I$1&amp;""":"&amp;IF(I7="","""""",I7)&amp;","""&amp;J$1&amp;""":"""&amp;J7&amp;""","""&amp;K$1&amp;""":"""&amp;K7&amp;"""},"</f>
@@ -1276,22 +1471,22 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M8" t="str">
         <f t="shared" si="1"/>
@@ -1303,19 +1498,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" si="1"/>
@@ -1327,19 +1522,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D10" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" t="s">
         <v>39</v>
       </c>
-      <c r="E10" t="s">
-        <v>83</v>
-      </c>
-      <c r="J10" t="s">
-        <v>40</v>
-      </c>
       <c r="K10" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
@@ -1351,19 +1546,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
@@ -1375,19 +1570,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
@@ -1399,19 +1594,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J13" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
@@ -1423,19 +1618,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J14" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
@@ -1447,22 +1642,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F15" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J15">
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
@@ -1474,19 +1669,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16">
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
@@ -1498,22 +1693,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J17">
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
@@ -1525,19 +1720,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J18">
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
@@ -1549,19 +1744,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" t="s">
         <v>65</v>
-      </c>
-      <c r="E19" t="s">
-        <v>66</v>
       </c>
       <c r="J19">
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
@@ -1573,22 +1768,22 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" t="s">
         <v>67</v>
       </c>
-      <c r="E20" t="s">
-        <v>68</v>
-      </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J20">
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
@@ -1600,19 +1795,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="D21" t="s">
         <v>54</v>
       </c>
-      <c r="D21" t="s">
-        <v>55</v>
-      </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J21">
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
@@ -1624,22 +1819,22 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J22">
         <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
@@ -1651,19 +1846,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" t="s">
         <v>57</v>
       </c>
-      <c r="D23" t="s">
-        <v>58</v>
-      </c>
       <c r="E23" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J23">
         <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
@@ -1672,7 +1867,7 @@
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -1684,8 +1879,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H1:H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1705,19 +1900,19 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>98</v>
+        <v>209</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1725,23 +1920,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="H2" t="str">
         <f>"{"""&amp;$A1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;""","""&amp;D$1&amp;""":"""&amp;D2&amp;""","""&amp;E$1&amp;""":"""&amp;E2&amp;""","""&amp;F$1&amp;""":"&amp;F2&amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;"""},"</f>
-        <v>{"id":1,"name":"Brother Deino","text":"","squad":"sword","colour":"blue","range":2,"set":"SL06"},</v>
+        <v>{"id":1,"name":"Brother Deino","text":"","squad":"sword","team":"blue","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1749,23 +1944,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>158</v>
+        <v>127</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" ref="H3:H13" si="0">"{"""&amp;$A2&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"""&amp;C3&amp;""","""&amp;D$1&amp;""":"""&amp;D3&amp;""","""&amp;E$1&amp;""":"""&amp;E3&amp;""","""&amp;F$1&amp;""":"&amp;F3&amp;","""&amp;G$1&amp;""":"""&amp;G3&amp;"""},"</f>
-        <v>{"1":2,"name":"Sergeant Lorenzo","text":"","squad":"sword","colour":"blue","range":2,"set":"SL07"},</v>
+        <v>{"1":2,"name":"Sergeant Lorenzo","text":"","squad":"sword","team":"blue","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1773,23 +1968,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>127</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>{"2":3,"name":"Brother Scipio","text":"","squad":"book","colour":"gray","range":2,"set":"SL08"},</v>
+        <v>{"2":3,"name":"Brother Scipio","text":"","squad":"book","team":"gray","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1797,23 +1992,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E5" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>160</v>
+        <v>127</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>{"3":4,"name":"Lexicanium Calistarius","text":"","squad":"book","colour":"gray","range":2,"set":"SL09"},</v>
+        <v>{"3":4,"name":"Lexicanium Calistarius","text":"","squad":"book","team":"gray","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -1821,23 +2016,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>{"4":5,"name":"Brother Noctis","text":"","squad":"hammer","colour":"green","range":2,"set":"SL10"},</v>
+        <v>{"4":5,"name":"Brother Noctis","text":"","squad":"hammer","team":"green","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -1845,23 +2040,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>162</v>
+        <v>127</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>{"5":6,"name":"Sergeant Gideon","text":"","squad":"hammer","colour":"green","range":0,"set":"SL11"},</v>
+        <v>{"5":6,"name":"Sergeant Gideon","text":"","squad":"hammer","team":"green","range":0,"set":"SL06"},</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -1869,23 +2064,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D8" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E8" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>163</v>
+        <v>127</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>{"6":7,"name":"Brother Omnio","text":"","squad":"flamer","colour":"purple","range":2,"set":"SL12"},</v>
+        <v>{"6":7,"name":"Brother Omnio","text":"","squad":"flamer","team":"purple","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -1893,23 +2088,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D9" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>164</v>
+        <v>127</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>{"7":8,"name":"Brother Zael","text":"","squad":"flamer","colour":"purple","range":1,"set":"SL13"},</v>
+        <v>{"7":8,"name":"Brother Zael","text":"","squad":"flamer","team":"purple","range":1,"set":"SL06"},</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -1917,23 +2112,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D10" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E10" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>165</v>
+        <v>127</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>{"8":9,"name":"Brother Leon","text":"","squad":"assault","colour":"red","range":3,"set":"SL14"},</v>
+        <v>{"8":9,"name":"Brother Leon","text":"","squad":"assault","team":"red","range":3,"set":"SL06"},</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -1941,23 +2136,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>166</v>
+        <v>127</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>{"9":10,"name":"Brother Valencio","text":"","squad":"assault","colour":"red","range":2,"set":"SL15"},</v>
+        <v>{"9":10,"name":"Brother Valencio","text":"","squad":"assault","team":"red","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -1965,23 +2160,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E12" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>{"10":11,"name":"Brother Claudio","text":"","squad":"claw","colour":"yellow","range":0,"set":"SL16"},</v>
+        <v>{"10":11,"name":"Brother Claudio","text":"","squad":"claw","team":"yellow","range":0,"set":"SL06"},</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -1989,28 +2184,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>168</v>
+        <v>127</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>{"11":12,"name":"Brother Goriel","text":"","squad":"claw","colour":"yellow","range":2,"set":"SL17"},</v>
+        <v>{"11":12,"name":"Brother Goriel","text":"","squad":"claw","team":"yellow","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2041,19 +2236,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" t="s">
-        <v>95</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -2064,13 +2259,13 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2078,13 +2273,13 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2092,16 +2287,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2109,13 +2304,13 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2123,13 +2318,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2137,13 +2332,13 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2151,13 +2346,13 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2165,13 +2360,13 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E9" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2179,13 +2374,13 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2193,13 +2388,13 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D11" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2207,13 +2402,13 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E12" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2221,13 +2416,13 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2235,13 +2430,13 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2249,13 +2444,13 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2263,13 +2458,13 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -2277,13 +2472,13 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2291,13 +2486,13 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2305,13 +2500,13 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D19" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2321,12 +2516,1331 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E1" t="s">
+        <v>156</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C2" t="s">
+        <v>214</v>
+      </c>
+      <c r="D2" t="s">
+        <v>180</v>
+      </c>
+      <c r="E2" t="s">
+        <v>159</v>
+      </c>
+      <c r="F2" t="s">
+        <v>181</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"&amp;C2&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""","""&amp;E$1&amp;""":"""&amp;E2&amp;""","""&amp;F$1&amp;""":"""&amp;F2&amp;"""},"</f>
+        <v>{"id":1,"name":"Chaos of Battle","spawn":{"threat":4,"type":"minor"},,"swarm":"skull","action":"move","text":"Change every Space Marine's facing."},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D3" t="s">
+        <v>180</v>
+      </c>
+      <c r="E3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F3" t="s">
+        <v>181</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G32" si="0">"{"""&amp;A$1&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"&amp;C3&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;""","""&amp;E$1&amp;""":"""&amp;E3&amp;""","""&amp;F$1&amp;""":"""&amp;F3&amp;"""},"</f>
+        <v>{"id":2,"name":"Chaos of Battle","spawn":{"threat":4,"type":"minor"},,"swarm":"skull","action":"move","text":"Change every Space Marine's facing."},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>197</v>
+      </c>
+      <c r="C4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D4" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":3,"name":"Cleansing Flames","spawn":{"threat":3,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a SPace Marine and roll a die. If you roll a [skull] slay 2 Genestealers engaged with him (of your choice)."},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" t="s">
+        <v>134</v>
+      </c>
+      <c r="E5" t="s">
+        <v>159</v>
+      </c>
+      <c r="F5" t="s">
+        <v>204</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":4,"name":"Enter Formation","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"Each time a player resolves a Move + Activate action card next round, he may first place 1 Support Token in any Space Marine."},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>182</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E6" t="s">
+        <v>183</v>
+      </c>
+      <c r="F6" t="s">
+        <v>205</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":5,"name":"Evasion","spawn":{"threat":2,"type":"minor"},,"swarm":"skull","action":"flank","text":"When a player resolves an Attack Action next round, he may only attack with 1 Space Marine of that Combat Team (instead of both)."},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" t="s">
+        <v>214</v>
+      </c>
+      <c r="D7" t="s">
+        <v>201</v>
+      </c>
+      <c r="E7" t="s">
+        <v>201</v>
+      </c>
+      <c r="F7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":6,"name":"Flanking Manoeuvre","spawn":{"threat":4,"type":"minor"},,"swarm":"null","action":"null","text":"Move all Swarms so that they are behind their engaged Space Marine."},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>159</v>
+      </c>
+      <c r="F8" t="s">
+        <v>178</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":7,"name":"For my Battle Brothers!","spawn":{"threat":4,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine that has at least 1 Support TOken (if able). Discard 1 Support Token form him and 1 Genestealer engaged with him (of your choice)."},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+      <c r="C9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="E9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F9" t="s">
+        <v>178</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":8,"name":"For my Battle Brothers!","spawn":{"threat":4,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine that has at least 1 Support TOken (if able). Discard 1 Support Token form him and 1 Genestealer engaged with him (of your choice)."},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>164</v>
+      </c>
+      <c r="C10" t="s">
+        <v>217</v>
+      </c>
+      <c r="D10" t="s">
+        <v>165</v>
+      </c>
+      <c r="E10" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" t="s">
+        <v>166</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":9,"name":"Full Scan","spawn":{"threat":4,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a blip pile. DIscard the top card of the chosen pile."},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" t="s">
+        <v>217</v>
+      </c>
+      <c r="D11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E11" t="s">
+        <v>159</v>
+      </c>
+      <c r="F11" t="s">
+        <v>166</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":10,"name":"Full Scan","spawn":{"threat":4,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a blip pile. DIscard the top card of the chosen pile."},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>167</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="D12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>159</v>
+      </c>
+      <c r="F12" t="s">
+        <v>202</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":11,"name":"Gun Jam","spawn":{"threat":2,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Combat Team that did not reveal an Attack Action this round. Next round,  that combat team may not play an Attack Action card."},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>167</v>
+      </c>
+      <c r="C13" t="s">
+        <v>218</v>
+      </c>
+      <c r="D13" t="s">
+        <v>158</v>
+      </c>
+      <c r="E13" t="s">
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>202</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":12,"name":"Gun Jam","spawn":{"threat":2,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Combat Team that did not reveal an Attack Action this round. Next round,  that combat team may not play an Attack Action card."},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>188</v>
+      </c>
+      <c r="C14" t="s">
+        <v>219</v>
+      </c>
+      <c r="D14" t="s">
+        <v>180</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="F14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":13,"name":"Out of Thin Air","spawn":{"threat":3,"type":"minor"},,"swarm":"skull","action":"flank","text":"Instince: Choose a Space Marine. Spawn 2 Genestealers behind him."},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>188</v>
+      </c>
+      <c r="C15" t="s">
+        <v>219</v>
+      </c>
+      <c r="D15" t="s">
+        <v>180</v>
+      </c>
+      <c r="E15" t="s">
+        <v>183</v>
+      </c>
+      <c r="F15" t="s">
+        <v>189</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":14,"name":"Out of Thin Air","spawn":{"threat":3,"type":"minor"},,"swarm":"skull","action":"flank","text":"Instince: Choose a Space Marine. Spawn 2 Genestealers behind him."},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>193</v>
+      </c>
+      <c r="C16" t="s">
+        <v>219</v>
+      </c>
+      <c r="D16" t="s">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" t="s">
+        <v>194</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":15,"name":"Outnumbered","spawn":{"threat":3,"type":"minor"},,"swarm":"claw","action":"flank","text":"Discard all Support Tokens from each Space Marine that is engaged with at least 1 Swarm."},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>190</v>
+      </c>
+      <c r="C17" t="s">
+        <v>214</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" t="s">
+        <v>206</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":16,"name":"Psychic Assault","spawn":{"threat":4,"type":"minor"},,"swarm":"tongue","action":"flank","text":"Instinct: Choose a Space Marine and roll a die. If you roll a [0] or [1], the space marine is slain."},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C18" t="s">
+        <v>217</v>
+      </c>
+      <c r="D18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18" t="s">
+        <v>159</v>
+      </c>
+      <c r="F18" t="s">
+        <v>171</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":17,"name":"Quick Instincts","spawn":{"threat":4,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: CHoose a Space Marine. He may immediately make 1 attack."},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C19" t="s">
+        <v>215</v>
+      </c>
+      <c r="D19" t="s">
+        <v>134</v>
+      </c>
+      <c r="E19" t="s">
+        <v>159</v>
+      </c>
+      <c r="F19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":18,"name":"Rescue Space Marine","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"Instinct: Choose a Space Marine that has been slain belonging to a non-eliminated Combat Team. Place the Space Marine card at the bottom of the formation facing the right."},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>173</v>
+      </c>
+      <c r="C20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D20" t="s">
+        <v>180</v>
+      </c>
+      <c r="E20" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":19,"name":"Resupply","spawn":{"threat":4,"type":"major"},,"swarm":"skull","action":"move","text":"Instinct: Choose a Space Marine. Moev all Support Tokens to him from all other Space Marines."},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" t="s">
+        <v>220</v>
+      </c>
+      <c r="D21" t="s">
+        <v>158</v>
+      </c>
+      <c r="E21" t="s">
+        <v>159</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":20,"name":"Rewarded Faith","spawn":{"threat":1,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine. You may discard any number of Support Tokens from him to slay an equal number of Genestealers engaged with him."},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>172</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
+      <c r="D22" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" t="s">
+        <v>207</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":21,"name":"Second Wind","spawn":{"threat":2,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a Space Marine. Each time he rolls a [0] while defending next round, the attack misses."},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" t="s">
+        <v>215</v>
+      </c>
+      <c r="D23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E23" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":22,"name":"Secret Route","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"If there is a Door terrain card in the formation,  place 2 Support Tokens on it."},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" t="s">
+        <v>215</v>
+      </c>
+      <c r="D24" t="s">
+        <v>134</v>
+      </c>
+      <c r="E24" t="s">
+        <v>159</v>
+      </c>
+      <c r="F24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":23,"name":"Secret Route","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"If there is a Door terrain card in the formation,  place 2 Support Tokens on it."},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" t="s">
+        <v>217</v>
+      </c>
+      <c r="D25" t="s">
+        <v>162</v>
+      </c>
+      <c r="E25" t="s">
+        <v>159</v>
+      </c>
+      <c r="F25" t="s">
+        <v>163</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":24,"name":"Stalking from the Shadows","spawn":{"threat":4,"type":"major"},,"swarm":"head","action":"move","text":"Instinct: Choose a Space Marine with at least 1 Support Token. DIscard all his Support Tokens."},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>161</v>
+      </c>
+      <c r="C26" t="s">
+        <v>217</v>
+      </c>
+      <c r="D26" t="s">
+        <v>162</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>163</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":25,"name":"Stalking from the Shadows","spawn":{"threat":4,"type":"major"},,"swarm":"head","action":"move","text":"Instinct: Choose a Space Marine with at least 1 Support Token. DIscard all his Support Tokens."},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C27" t="s">
+        <v>214</v>
+      </c>
+      <c r="D27" t="s">
+        <v>201</v>
+      </c>
+      <c r="E27" t="s">
+        <v>201</v>
+      </c>
+      <c r="F27" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":26,"name":"Surrounded","spawn":{"threat":4,"type":"minor"},,"swarm":"null","action":"null","text":"Instinct: Choose a Space Marine. Move all Genestealers (from every position) to the chosen Space Marine's position (do not change their side)."},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" t="s">
+        <v>217</v>
+      </c>
+      <c r="D28" t="s">
+        <v>134</v>
+      </c>
+      <c r="E28" t="s">
+        <v>159</v>
+      </c>
+      <c r="F28" t="s">
+        <v>185</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":27,"name":"Temporary Sanctuary","spawn":{"threat":4,"type":"major"},,"swarm":"claw","action":"move","text":"Instinct: Choose a swarm of Genestealers. Shuffle all cards from the chose swarm into the smallest blip pile."},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>195</v>
+      </c>
+      <c r="C29" t="s">
+        <v>216</v>
+      </c>
+      <c r="D29" t="s">
+        <v>158</v>
+      </c>
+      <c r="E29" t="s">
+        <v>183</v>
+      </c>
+      <c r="F29" t="s">
+        <v>196</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":28,"name":"The Swarm","spawn":{"threat":2,"type":"minor"},,"swarm":"tail","action":"flank","text":"Place 2 Genestealer cards into each blip pile (from the Genestealer deck)."},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>195</v>
+      </c>
+      <c r="C30" t="s">
+        <v>216</v>
+      </c>
+      <c r="D30" t="s">
+        <v>158</v>
+      </c>
+      <c r="E30" t="s">
+        <v>183</v>
+      </c>
+      <c r="F30" t="s">
+        <v>196</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":29,"name":"The Swarm","spawn":{"threat":2,"type":"minor"},,"swarm":"tail","action":"flank","text":"Place 2 Genestealer cards into each blip pile (from the Genestealer deck)."},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>199</v>
+      </c>
+      <c r="C31" t="s">
+        <v>219</v>
+      </c>
+      <c r="D31" t="s">
+        <v>158</v>
+      </c>
+      <c r="E31" t="s">
+        <v>183</v>
+      </c>
+      <c r="F31" t="s">
+        <v>200</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":30,"name":"They're Everywhere!","spawn":{"threat":3,"type":"minor"},,"swarm":"tail","action":"flank","text":"Spawn 1 Genestealer in front of each Space Marine that is not enagaged with a swarm."},</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:H32">
+    <sortCondition ref="B2"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>212</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" t="str">
+        <f>"{""threat"":"&amp;A2&amp;",""type"":"""&amp;B2&amp;"""},"</f>
+        <v>{"threat":4,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>212</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E31" si="0">"{""threat"":"&amp;A3&amp;",""type"":"""&amp;B3&amp;"""},"</f>
+        <v>{"threat":4,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>213</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>212</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":2,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>212</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4</v>
+      </c>
+      <c r="B9" t="s">
+        <v>213</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>213</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>213</v>
+      </c>
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2</v>
+      </c>
+      <c r="B12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>212</v>
+      </c>
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":2,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" t="s">
+        <v>213</v>
+      </c>
+      <c r="C13">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>212</v>
+      </c>
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":2,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" t="s">
+        <v>212</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14" t="s">
+        <v>212</v>
+      </c>
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+      <c r="B15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C15">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16" t="s">
+        <v>212</v>
+      </c>
+      <c r="C16">
+        <v>4</v>
+      </c>
+      <c r="D16" t="s">
+        <v>212</v>
+      </c>
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>4</v>
+      </c>
+      <c r="B17" t="s">
+        <v>212</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>212</v>
+      </c>
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>4</v>
+      </c>
+      <c r="B18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>213</v>
+      </c>
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+      <c r="B19" t="s">
+        <v>213</v>
+      </c>
+      <c r="C19">
+        <v>4</v>
+      </c>
+      <c r="D19" t="s">
+        <v>213</v>
+      </c>
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+      <c r="B20" t="s">
+        <v>213</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>212</v>
+      </c>
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>213</v>
+      </c>
+      <c r="C21">
+        <v>4</v>
+      </c>
+      <c r="D21" t="s">
+        <v>212</v>
+      </c>
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":1,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C22">
+        <v>4</v>
+      </c>
+      <c r="D22" t="s">
+        <v>213</v>
+      </c>
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":2,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+      <c r="B23" t="s">
+        <v>213</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>213</v>
+      </c>
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>213</v>
+      </c>
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>213</v>
+      </c>
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>4</v>
+      </c>
+      <c r="B26" t="s">
+        <v>213</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>213</v>
+      </c>
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4</v>
+      </c>
+      <c r="B27" t="s">
+        <v>212</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27" t="s">
+        <v>212</v>
+      </c>
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+      <c r="B28" t="s">
+        <v>213</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>213</v>
+      </c>
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":4,"type":"major"},</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s">
+        <v>212</v>
+      </c>
+      <c r="C29">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>212</v>
+      </c>
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":2,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30" t="s">
+        <v>212</v>
+      </c>
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="D30" t="s">
+        <v>212</v>
+      </c>
+      <c r="E30" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":2,"type":"minor"},</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+      <c r="B31" t="s">
+        <v>212</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>212</v>
+      </c>
+      <c r="E31" t="str">
+        <f t="shared" si="0"/>
+        <v>{"threat":3,"type":"minor"},</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/DA/data/alldata.xlsx
+++ b/DA/data/alldata.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="12075" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="21075" windowHeight="12075" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="terrain" sheetId="2" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -309,27 +309,6 @@
     <t>number</t>
   </si>
   <si>
-    <t>Red</t>
-  </si>
-  <si>
-    <t>Green</t>
-  </si>
-  <si>
-    <t>Blue</t>
-  </si>
-  <si>
-    <t>Gray</t>
-  </si>
-  <si>
-    <t>Yellow</t>
-  </si>
-  <si>
-    <t>Purple</t>
-  </si>
-  <si>
-    <t>Leon</t>
-  </si>
-  <si>
     <t>Sergeant Gideon</t>
   </si>
   <si>
@@ -396,9 +375,6 @@
     <t>Strategize</t>
   </si>
   <si>
-    <t>Flamer Attacke</t>
-  </si>
-  <si>
     <t>blipcount</t>
   </si>
   <si>
@@ -663,33 +639,104 @@
     <t>major</t>
   </si>
   <si>
-    <t>{"threat":4,"type":"minor"},</t>
-  </si>
-  <si>
-    <t>{"threat":3,"type":"major"},</t>
-  </si>
-  <si>
-    <t>{"threat":2,"type":"minor"},</t>
-  </si>
-  <si>
-    <t>{"threat":4,"type":"major"},</t>
-  </si>
-  <si>
-    <t>{"threat":2,"type":"major"},</t>
-  </si>
-  <si>
-    <t>{"threat":3,"type":"minor"},</t>
-  </si>
-  <si>
-    <t>{"threat":1,"type":"major"},</t>
+    <t>[{"threat":4,"type":"minor"},{"threat":2,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":3,"type":"major"},{"threat":1,"type":"major"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":3,"type":"major"},{"threat":2,"type":"major"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":2,"type":"minor"},{"threat":4,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":4,"type":"minor"},{"threat":3,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":4,"type":"major"},{"threat":3,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":4,"type":"major"},{"threat":2,"type":"major"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":2,"type":"major"},{"threat":4,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":4,"type":"major"},{"threat":3,"type":"major"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":3,"type":"major"},{"threat":4,"type":"major"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":4,"type":"major"},{"threat":2,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":1,"type":"major"},{"threat":4,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":2,"type":"major"},{"threat":4,"type":"major"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":4,"type":"major"},{"threat":1,"type":"major"}]</t>
+  </si>
+  <si>
+    <t>[{"threat":2,"type":"minor"},{"threat":3,"type":"minor"}]</t>
+  </si>
+  <si>
+    <t>Flamer Attack</t>
+  </si>
+  <si>
+    <t>Brother Leon may attack up to 3 times (instead of just once)</t>
+  </si>
+  <si>
+    <t>Instead of attacking with Brother Claudio, you &lt;b&gt;may&lt;/b&gt; slay up to 3 Genestealers within 1 range of him (ignoring facing). Then roll a die. If you roll a [0] Brother Claudio is slain.</t>
+  </si>
+  <si>
+    <t>Each time 1 of your attacking Space marines rolls a [4], slay up to 3 Genestealers from the defending swarm.</t>
+  </si>
+  <si>
+    <t>After resolving this card's action, each of your Space Marines may spend 1 Support Token to make 1 attack.</t>
+  </si>
+  <si>
+    <t>Each time Sergeant Gideon rolls a [skull] &lt;b&gt;while defending&lt;/b&gt;, the attack misses.</t>
+  </si>
+  <si>
+    <t>Your Space Marines may move to any position in the formation (instead of just adjacent positions)</t>
+  </si>
+  <si>
+    <t>Each time 1 of your &lt;b&gt;defending&lt;/b&gt; Space Marine spends a Support Token to reroll a die, the attack misses unless the new roll is a [0]</t>
+  </si>
+  <si>
+    <t>After resolving this card's action, you may move 1 swarm to an adjacent position and/or move it to the other side of the formation.</t>
+  </si>
+  <si>
+    <t>After resolving this card's action, you may look at the top card of the Event Deck. Then place it on the top or bottom of the deck.</t>
+  </si>
+  <si>
+    <t>When Brother Zael attacks, ignore all [skull] rolled. Instead, slay a number of Genestealers in the swarm equal to the number rolled.</t>
+  </si>
+  <si>
+    <t>Each time Sergeant Lorenzo rolls a [skull] &lt;b&gt;while defending&lt;/b&gt; the attack misses and slay 1 of the attacking Genestealers. If the swarm still contains a Genestealer, it attacks again.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -717,9 +764,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1050,7 +1099,7 @@
         <v>12</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1064,7 +1113,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="G2" t="str">
         <f>"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"&amp;C2&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;"""},"</f>
@@ -1190,7 +1239,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G10" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1202,7 +1251,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1229,13 +1280,13 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="E1" t="s">
         <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="G1" t="s">
         <v>8</v>
@@ -1253,7 +1304,7 @@
         <v>5</v>
       </c>
       <c r="M1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
@@ -1270,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F2" t="s">
         <v>21</v>
@@ -1288,10 +1339,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M2" t="str">
-        <f t="shared" ref="M2:M5" si="0">"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;""","""&amp;D$1&amp;""":"&amp;D2&amp;","""&amp;E$1&amp;""":"&amp;E2&amp;","""&amp;F$1&amp;""":"&amp;IF(F2="","""""",F2)&amp;",""spawn"":{""major"":"&amp;IF(G2="",0,G2)&amp;",""minor"":"&amp;IF(H2="",0,H2)&amp;"},"""&amp;I$1&amp;""":"&amp;IF(I2="","""""",I2)&amp;","""&amp;J$1&amp;""":"""&amp;J2&amp;""","""&amp;K$1&amp;""":"""&amp;K2&amp;"""},"</f>
+        <f t="shared" ref="M2:M23" si="0">"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;""","""&amp;D$1&amp;""":"&amp;D2&amp;","""&amp;E$1&amp;""":"&amp;E2&amp;","""&amp;F$1&amp;""":"&amp;IF(F2="","""""",F2)&amp;",""spawn"":{""major"":"&amp;IF(G2="",0,G2)&amp;",""minor"":"&amp;IF(H2="",0,H2)&amp;"},"""&amp;I$1&amp;""":"&amp;IF(I2="","""""",I2)&amp;","""&amp;J$1&amp;""":"""&amp;J2&amp;""","""&amp;K$1&amp;""":"""&amp;K2&amp;"""},"</f>
         <v>{"id":1,"name":"Void Lock","text":"Setup for 3 or 6 players (12 Space Marines)","blipcount":[9,9],"terrain":["Door","Dark Corner","Ventilation Duct","Corridor"],"terrainlocation":[2,5,6,3],"spawn":{"major":5,"minor":3},"setup":["1A","2","3","4"],"deck":"0","set":"SL06"},</v>
       </c>
     </row>
@@ -1309,7 +1360,7 @@
         <v>28</v>
       </c>
       <c r="E3" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
         <v>75</v>
@@ -1327,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M3" t="str">
         <f t="shared" si="0"/>
@@ -1348,7 +1399,7 @@
         <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F4" t="s">
         <v>74</v>
@@ -1366,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M4" t="str">
         <f t="shared" si="0"/>
@@ -1387,7 +1438,7 @@
         <v>54</v>
       </c>
       <c r="E5" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="F5" t="s">
         <v>73</v>
@@ -1405,7 +1456,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M5" t="str">
         <f t="shared" si="0"/>
@@ -1429,10 +1480,10 @@
         <v>24</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M6" t="str">
-        <f>"{"""&amp;A$1&amp;""":"&amp;A6&amp;","""&amp;B$1&amp;""":"""&amp;B6&amp;""","""&amp;C$1&amp;""":"""&amp;C6&amp;""","""&amp;D$1&amp;""":"&amp;D6&amp;","""&amp;E$1&amp;""":"&amp;E6&amp;","""&amp;F$1&amp;""":"&amp;IF(F6="","""""",F6)&amp;",""spawn"":{""major"":"&amp;IF(G6="",0,G6)&amp;",""minor"":"&amp;IF(H6="",0,H6)&amp;"},"""&amp;I$1&amp;""":"&amp;IF(I6="","""""",I6)&amp;","""&amp;J$1&amp;""":"""&amp;J6&amp;""","""&amp;K$1&amp;""":"""&amp;K6&amp;"""},"</f>
+        <f t="shared" si="0"/>
         <v>{"id":5,"name":"Maintenance Tunnels","text":"","blipcount":[8,8],"terrain":["Dark Corner","Control Panel","Door","Ventilation Duct"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1A","set":"SL06"},</v>
       </c>
     </row>
@@ -1444,7 +1495,7 @@
         <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D7" t="s">
         <v>29</v>
@@ -1459,10 +1510,10 @@
         <v>24</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M7" t="str">
-        <f t="shared" ref="M7:M23" si="1">"{"""&amp;A$1&amp;""":"&amp;A7&amp;","""&amp;B$1&amp;""":"""&amp;B7&amp;""","""&amp;C$1&amp;""":"""&amp;C7&amp;""","""&amp;D$1&amp;""":"&amp;D7&amp;","""&amp;E$1&amp;""":"&amp;E7&amp;","""&amp;F$1&amp;""":"&amp;IF(F7="","""""",F7)&amp;",""spawn"":{""major"":"&amp;IF(G7="",0,G7)&amp;",""minor"":"&amp;IF(H7="",0,H7)&amp;"},"""&amp;I$1&amp;""":"&amp;IF(I7="","""""",I7)&amp;","""&amp;J$1&amp;""":"""&amp;J7&amp;""","""&amp;K$1&amp;""":"""&amp;K7&amp;"""},"</f>
+        <f t="shared" si="0"/>
         <v>{"id":6,"name":"Main Corridor","text":"Upon Entering: Spawn 2 Genestealers on the \"Corridor\" terrain card.","blipcount":[7,8],"terrain":["Ventilation Duct","Door","Corridor","Dark Corner"],"terrainlocation":[2,5,7,3],"spawn":{"major":0,"minor":0},"setup":"","deck":"1A","set":"SL06"},</v>
       </c>
     </row>
@@ -1474,7 +1525,7 @@
         <v>27</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -1486,10 +1537,10 @@
         <v>24</v>
       </c>
       <c r="K8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M8" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":7,"name":"Service Shaft","text":"Upon entering, make all marines face right","blipcount":[7,7],"terrain":["Dark Corner","Ventilation Duct","Corridor","Door"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1A","set":"SL06"},</v>
       </c>
     </row>
@@ -1510,10 +1561,10 @@
         <v>39</v>
       </c>
       <c r="K9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M9" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":8,"name":"Crio Control","text":"","blipcount":[7,7],"terrain":["Control Panel","Ventilation Duct","Dark Corner","Corridor"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1B","set":"SL06"},</v>
       </c>
     </row>
@@ -1534,10 +1585,10 @@
         <v>39</v>
       </c>
       <c r="K10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M10" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":9,"name":"Wreckage Labyrinth","text":"","blipcount":[7,6],"terrain":["Ventialtion Duct","Corridor","Promethean Tank","Door"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1B","set":"SL06"},</v>
       </c>
     </row>
@@ -1558,10 +1609,10 @@
         <v>39</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M11" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":10,"name":"Lower Accessway","text":"","blipcount":[7,7],"terrain":["Ventialtion Duct","Corridor","Dark Corner","Door"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1B","set":"SL06"},</v>
       </c>
     </row>
@@ -1582,10 +1633,10 @@
         <v>49</v>
       </c>
       <c r="K12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M12" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":11,"name":"Munitorium","text":"","blipcount":[6,7],"terrain":["Promethean Tank","Door","Dark Corner","Ventilation Duct"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1C","set":"SL06"},</v>
       </c>
     </row>
@@ -1606,10 +1657,10 @@
         <v>49</v>
       </c>
       <c r="K13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M13" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":12,"name":"Core Cogitator","text":"","blipcount":[7,5],"terrain":["Corridor","Ventilation Duct","Dark Corner","Control Panel"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1C","set":"SL06"},</v>
       </c>
     </row>
@@ -1630,10 +1681,10 @@
         <v>49</v>
       </c>
       <c r="K14" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M14" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":13,"name":"Apothecarion","text":"","blipcount":[7,6],"terrain":["Control Panel","Ventilation Duct","Corridor","Dark Corner"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"1C","set":"SL06"},</v>
       </c>
     </row>
@@ -1657,10 +1708,10 @@
         <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M15" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":14,"name":"Teleportarium","text":"","blipcount":[7,5],"terrain":["Ventilation Duct","Dark Corner","Control Panel","Corridor"],"terrainlocation":[2,4,4,1],"spawn":{"major":0,"minor":0},"setup":"","deck":"2","set":"SL06"},</v>
       </c>
     </row>
@@ -1681,10 +1732,10 @@
         <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M16" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":15,"name":"Black Holds","text":"","blipcount":[5,6],"terrain":["Dark Corner","Door","Ventilation Duct","Promethean Tank"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"2","set":"SL06"},</v>
       </c>
     </row>
@@ -1708,10 +1759,10 @@
         <v>2</v>
       </c>
       <c r="K17" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M17" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":16,"name":"Dark Catacombs","text":"","blipcount":[6,6],"terrain":["Dark Corner","Door","Ventilation Duct","Corridor"],"terrainlocation":[1,3,5,4],"spawn":{"major":0,"minor":0},"setup":"","deck":"2","set":"SL06"},</v>
       </c>
     </row>
@@ -1732,10 +1783,10 @@
         <v>3</v>
       </c>
       <c r="K18" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M18" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":17,"name":"Wrath of Baal Chapel","text":"","blipcount":[5,6],"terrain":["Ventilation Duct","Corridor","Door","Dark Corner"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"3","set":"SL06"},</v>
       </c>
     </row>
@@ -1756,10 +1807,10 @@
         <v>3</v>
       </c>
       <c r="K19" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M19" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":18,"name":"Genetorium","text":"","blipcount":[5,5],"terrain":["Corridor","Dark Corner","Control Panel","Ventilation Duct"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"3","set":"SL06"},</v>
       </c>
     </row>
@@ -1783,10 +1834,10 @@
         <v>3</v>
       </c>
       <c r="K20" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M20" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":19,"name":"Hibernation Cluster","text":"","blipcount":[0,0],"terrain":["Ventilation Duct","Door","Spore Chimney","Dark Corner"],"terrainlocation":[3,4,2,1],"spawn":{"major":0,"minor":0},"setup":"","deck":"3","set":"SL06"},</v>
       </c>
     </row>
@@ -1807,10 +1858,10 @@
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M21" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":20,"name":"Launch Control Room","text":"","blipcount":[6,6],"terrain":["Dark Corner","Control Panel","Ventilation Duct","Corridor"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"4","set":"SL06"},</v>
       </c>
     </row>
@@ -1834,10 +1885,10 @@
         <v>4</v>
       </c>
       <c r="K22" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M22" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":21,"name":"Toxin Pumping Station","text":"","blipcount":[7,7],"terrain":["Corridor","Dark Corner","Control Panel","Ventilation Duct"],"terrainlocation":[1,2,2,1],"spawn":{"major":0,"minor":0},"setup":"","deck":"4","set":"SL06"},</v>
       </c>
     </row>
@@ -1858,16 +1909,16 @@
         <v>4</v>
       </c>
       <c r="K23" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="M23" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>{"id":22,"name":"Genestealer Lair","text":"","blipcount":[6,5],"terrain":["Dark Corner","Ventilation Duct","Corridor","Spore Chimney"],"terrainlocation":"","spawn":{"major":0,"minor":0},"setup":"","deck":"4","set":"SL06"},</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="M24" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -1880,7 +1931,7 @@
   <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H1" sqref="H1:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1954,7 @@
         <v>91</v>
       </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
         <v>92</v>
@@ -1912,7 +1963,7 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1920,22 +1971,22 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F2">
         <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H2" t="str">
-        <f>"{"""&amp;$A1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;""","""&amp;D$1&amp;""":"""&amp;D2&amp;""","""&amp;E$1&amp;""":"""&amp;E2&amp;""","""&amp;F$1&amp;""":"&amp;F2&amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;"""},"</f>
+        <f>"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;""","""&amp;D$1&amp;""":"""&amp;D2&amp;""","""&amp;E$1&amp;""":"""&amp;E2&amp;""","""&amp;F$1&amp;""":"&amp;F2&amp;","""&amp;G$1&amp;""":"""&amp;G2&amp;"""},"</f>
         <v>{"id":1,"name":"Brother Deino","text":"","squad":"sword","team":"blue","range":2,"set":"SL06"},</v>
       </c>
     </row>
@@ -1944,23 +1995,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="D3" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E3" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H3" t="str">
-        <f t="shared" ref="H3:H13" si="0">"{"""&amp;$A2&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"""&amp;C3&amp;""","""&amp;D$1&amp;""":"""&amp;D3&amp;""","""&amp;E$1&amp;""":"""&amp;E3&amp;""","""&amp;F$1&amp;""":"&amp;F3&amp;","""&amp;G$1&amp;""":"""&amp;G3&amp;"""},"</f>
-        <v>{"1":2,"name":"Sergeant Lorenzo","text":"","squad":"sword","team":"blue","range":2,"set":"SL06"},</v>
+        <f t="shared" ref="H3:H13" si="0">"{"""&amp;A$1&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"""&amp;C3&amp;""","""&amp;D$1&amp;""":"""&amp;D3&amp;""","""&amp;E$1&amp;""":"""&amp;E3&amp;""","""&amp;F$1&amp;""":"&amp;F3&amp;","""&amp;G$1&amp;""":"""&amp;G3&amp;"""},"</f>
+        <v>{"id":2,"name":"Sergeant Lorenzo","text":"","squad":"sword","team":"blue","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
@@ -1968,23 +2019,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="D4" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E4" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" si="0"/>
-        <v>{"2":3,"name":"Brother Scipio","text":"","squad":"book","team":"gray","range":2,"set":"SL06"},</v>
+        <v>{"id":3,"name":"Brother Scipio","text":"","squad":"book","team":"gray","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1992,23 +2043,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="D5" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
-        <v>{"3":4,"name":"Lexicanium Calistarius","text":"","squad":"book","team":"gray","range":2,"set":"SL06"},</v>
+        <v>{"id":4,"name":"Lexicanium Calistarius","text":"","squad":"book","team":"gray","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2016,23 +2067,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D6" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E6" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F6">
         <v>2</v>
       </c>
       <c r="G6" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="0"/>
-        <v>{"4":5,"name":"Brother Noctis","text":"","squad":"hammer","team":"green","range":2,"set":"SL06"},</v>
+        <v>{"id":5,"name":"Brother Noctis","text":"","squad":"hammer","team":"green","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
@@ -2040,23 +2091,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D7" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E7" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
-        <v>{"5":6,"name":"Sergeant Gideon","text":"","squad":"hammer","team":"green","range":0,"set":"SL06"},</v>
+        <v>{"id":6,"name":"Sergeant Gideon","text":"","squad":"hammer","team":"green","range":0,"set":"SL06"},</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2064,23 +2115,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="D8" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E8" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="0"/>
-        <v>{"6":7,"name":"Brother Omnio","text":"","squad":"flamer","team":"purple","range":2,"set":"SL06"},</v>
+        <v>{"id":7,"name":"Brother Omnio","text":"","squad":"flamer","team":"purple","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
@@ -2088,23 +2139,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="D9" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
-        <v>{"7":8,"name":"Brother Zael","text":"","squad":"flamer","team":"purple","range":1,"set":"SL06"},</v>
+        <v>{"id":8,"name":"Brother Zael","text":"","squad":"flamer","team":"purple","range":1,"set":"SL06"},</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
@@ -2112,23 +2163,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="D10" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E10" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F10">
         <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
-        <v>{"8":9,"name":"Brother Leon","text":"","squad":"assault","team":"red","range":3,"set":"SL06"},</v>
+        <v>{"id":9,"name":"Brother Leon","text":"","squad":"assault","team":"red","range":3,"set":"SL06"},</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
@@ -2136,23 +2187,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E11" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="F11">
         <v>2</v>
       </c>
       <c r="G11" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
-        <v>{"9":10,"name":"Brother Valencio","text":"","squad":"assault","team":"red","range":2,"set":"SL06"},</v>
+        <v>{"id":10,"name":"Brother Valencio","text":"","squad":"assault","team":"red","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
@@ -2160,23 +2211,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E12" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
-        <v>{"10":11,"name":"Brother Claudio","text":"","squad":"claw","team":"yellow","range":0,"set":"SL06"},</v>
+        <v>{"id":11,"name":"Brother Claudio","text":"","squad":"claw","team":"yellow","range":0,"set":"SL06"},</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
@@ -2184,28 +2235,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="G13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
-        <v>{"11":12,"name":"Brother Goriel","text":"","squad":"claw","team":"yellow","range":2,"set":"SL06"},</v>
+        <v>{"id":12,"name":"Brother Goriel","text":"","squad":"claw","team":"yellow","range":2,"set":"SL06"},</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="H14" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -2219,10 +2270,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2231,7 +2282,7 @@
     <col min="3" max="3" width="16.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2245,7 +2296,7 @@
         <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>91</v>
+        <v>201</v>
       </c>
       <c r="F1" t="s">
         <v>93</v>
@@ -2253,263 +2304,464 @@
       <c r="G1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
+        <f>B2</f>
         <v>1</v>
       </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
       <c r="C2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2" t="s">
+        <v>227</v>
+      </c>
+      <c r="H2" t="str">
+        <f>"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"""&amp;C2&amp;""","""&amp;D$1&amp;""":"""&amp;D2&amp;""","""&amp;E$1&amp;""":"""&amp;E2&amp;""","""&amp;F$1&amp;""":"""&amp;F2&amp;""","""&amp;G$1&amp;""":"""&amp;G2&amp;"""},"</f>
+        <v>{"id":1,"number":"1","name":"Block","type":"Support","team":"green","marine":"Sergeant Gideon","text":"Each time Sergeant Gideon rolls a [skull] &lt;b&gt;while defending&lt;/b&gt;, the attack misses."},</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
+        <f>B3</f>
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>109</v>
       </c>
       <c r="D3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G3" t="s">
+        <v>229</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H19" si="0">"{"""&amp;A$1&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"""&amp;C3&amp;""","""&amp;D$1&amp;""":"""&amp;D3&amp;""","""&amp;E$1&amp;""":"""&amp;E3&amp;""","""&amp;F$1&amp;""":"""&amp;F3&amp;""","""&amp;G$1&amp;""":"""&amp;G3&amp;"""},"</f>
+        <v>{"id":2,"number":"2","name":"Defensive Stance","type":"Support","team":"yellow","marine":"","text":"Each time 1 of your &lt;b&gt;defending&lt;/b&gt; Space Marine spends a Support Token to reroll a die, the attack misses unless the new roll is a [0]"},</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <f>B4</f>
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D4" t="s">
+        <v>99</v>
+      </c>
+      <c r="E4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F4" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" t="s">
+        <v>233</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":3,"number":"3","name":"Counter Attack","type":"Support","team":"blue","marine":"Sergeant Lorenzo","text":"Each time Sergeant Lorenzo rolls a [skull] &lt;b&gt;while defending&lt;/b&gt; the attack misses and slay 1 of the attacking Genestealers. If the swarm still contains a Genestealer, it attacks again."},</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <f>B5</f>
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" t="s">
+        <v>137</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":4,"number":"4","name":"Overwatch","type":"Support","team":"red","marine":"","text":""},</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <f>B6</f>
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>230</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":5,"number":"5","name":"Strategize","type":"Support","team":"purple","marine":"","text":"After resolving this card's action, you may move 1 swarm to an adjacent position and/or move it to the other side of the formation."},</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <f>B7</f>
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":6,"number":"6","name":"Power Field","type":"Support","team":"gray","marine":"","text":""},</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <f>B8</f>
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>98</v>
+      </c>
+      <c r="E8" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":7,"number":"7","name":"Onward Brothers!","type":"Move + Activate","team":"red","marine":"","text":""},</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <f>B9</f>
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>113</v>
+      </c>
+      <c r="D9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E9" t="s">
+        <v>141</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":8,"number":"8","name":"Stealth Tactics","type":"Move + Activate","team":"gray","marine":"","text":""},</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <f>B10</f>
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" t="s">
+        <v>127</v>
+      </c>
+      <c r="G10" t="s">
+        <v>228</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":9,"number":"9","name":"Reorganize","type":"Move + Activate","team":"yellow","marine":"","text":"Your Space Marines may move to any position in the formation (instead of just adjacent positions)"},</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <f>B11</f>
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
+      </c>
+      <c r="D11" t="s">
+        <v>98</v>
+      </c>
+      <c r="E11" t="s">
+        <v>145</v>
+      </c>
+      <c r="G11" t="s">
+        <v>231</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":10,"number":"10","name":"Forward Scouting","type":"Move + Activate","team":"purple","marine":"","text":"After resolving this card's action, you may look at the top card of the Event Deck. Then place it on the top or bottom of the deck."},</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <f>B12</f>
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>98</v>
+      </c>
+      <c r="E12" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":11,"number":"11","name":"Intimidation","type":"Move + Activate","team":"blue","marine":"","text":""},</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <f>B13</f>
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D13" t="s">
+        <v>98</v>
+      </c>
+      <c r="E13" t="s">
+        <v>130</v>
+      </c>
+      <c r="G13" t="s">
+        <v>226</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":12,"number":"12","name":"Run and Gun","type":"Move + Activate","team":"green","marine":"","text":"After resolving this card's action, each of your Space Marines may spend 1 Support Token to make 1 attack."},</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <f>B14</f>
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
         <v>106</v>
       </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="D14" t="s">
+        <v>100</v>
+      </c>
+      <c r="E14" t="s">
+        <v>133</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":13,"number":"13","name":"Lead by Example","type":"Attack","team":"blue","marine":"","text":""},</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <f>B15</f>
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>222</v>
+      </c>
+      <c r="D15" t="s">
+        <v>100</v>
+      </c>
+      <c r="E15" t="s">
+        <v>145</v>
+      </c>
+      <c r="F15" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" t="s">
+        <v>232</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":14,"number":"14","name":"Flamer Attack","type":"Attack","team":"purple","marine":"Brother Zael","text":"When Brother Zael attacks, ignore all [skull] rolled. Instead, slay a number of Genestealers in the swarm equal to the number rolled."},</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <f>B16</f>
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>115</v>
+      </c>
+      <c r="D16" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" t="s">
+        <v>141</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":15,"number":"15","name":"Psionic Attack","type":"Attack","team":"gray","marine":"","text":""},</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <f>B17</f>
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>112</v>
+      </c>
+      <c r="D17" t="s">
+        <v>100</v>
+      </c>
+      <c r="E17" t="s">
+        <v>130</v>
+      </c>
+      <c r="G17" t="s">
+        <v>225</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":16,"number":"16","name":"Dead Aim","type":"Attack","team":"green","marine":"","text":"Each time 1 of your attacking Space marines rolls a [4], slay up to 3 Genestealers from the defending swarm."},</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <f>B18</f>
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D18" t="s">
+        <v>100</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>223</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":17,"number":"17","name":"Full Auto","type":"Attack","team":"red","marine":"Brother Leon","text":"Brother Leon may attack up to 3 times (instead of just once)"},</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <f>B19</f>
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
         <v>110</v>
       </c>
-      <c r="D4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-      <c r="F4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>118</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>119</v>
-      </c>
-      <c r="D7" t="s">
-        <v>107</v>
-      </c>
-      <c r="E7" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="C8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D8" t="s">
-        <v>105</v>
-      </c>
-      <c r="E8" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
-      </c>
-      <c r="D9" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="C10" t="s">
-        <v>113</v>
-      </c>
-      <c r="D10" t="s">
-        <v>107</v>
-      </c>
-      <c r="E10" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="C11" t="s">
-        <v>120</v>
-      </c>
-      <c r="D11" t="s">
-        <v>105</v>
-      </c>
-      <c r="E11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D19" t="s">
+        <v>100</v>
+      </c>
+      <c r="E19" t="s">
+        <v>127</v>
+      </c>
+      <c r="F19" t="s">
+        <v>128</v>
+      </c>
+      <c r="G19" t="s">
+        <v>224</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>{"id":18,"number":"18","name":"Heroic Charge","type":"Attack","team":"yellow","marine":"Brother Claudio","text":"Instead of attacking with Brother Claudio, you &lt;b&gt;may&lt;/b&gt; slay up to 3 Genestealers within 1 range of him (ignoring facing). Then roll a die. If you roll a [0] Brother Claudio is slain."},</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H20" t="s">
         <v>122</v>
       </c>
-      <c r="D13" t="s">
-        <v>107</v>
-      </c>
-      <c r="E13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="C14" t="s">
-        <v>115</v>
-      </c>
-      <c r="D14" t="s">
-        <v>105</v>
-      </c>
-      <c r="E14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>116</v>
-      </c>
-      <c r="D15" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="C16" t="s">
-        <v>117</v>
-      </c>
-      <c r="D16" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="C17" t="s">
-        <v>123</v>
-      </c>
-      <c r="D17" t="s">
-        <v>105</v>
-      </c>
-      <c r="E17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
-        <v>124</v>
-      </c>
-      <c r="D18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="C19" t="s">
-        <v>125</v>
-      </c>
-      <c r="D19" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" t="s">
-        <v>101</v>
-      </c>
     </row>
   </sheetData>
+  <sortState ref="A2:G19">
+    <sortCondition ref="D2:D19" customList="Support,Move + Activate,Attack"/>
+    <sortCondition ref="E2:E19"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2518,15 +2770,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G32"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="42.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -2537,19 +2789,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="D1" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="E1" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="F1" t="s">
         <v>2</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -2557,23 +2809,23 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C2" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G2" t="str">
         <f>"{"""&amp;A$1&amp;""":"&amp;A2&amp;","""&amp;B$1&amp;""":"""&amp;B2&amp;""","""&amp;C$1&amp;""":"&amp;C2&amp;","""&amp;D$1&amp;""":"""&amp;D2&amp;""","""&amp;E$1&amp;""":"""&amp;E2&amp;""","""&amp;F$1&amp;""":"""&amp;F2&amp;"""},"</f>
-        <v>{"id":1,"name":"Chaos of Battle","spawn":{"threat":4,"type":"minor"},,"swarm":"skull","action":"move","text":"Change every Space Marine's facing."},</v>
+        <v>{"id":1,"name":"Chaos of Battle","spawn":[{"threat":4,"type":"minor"},{"threat":2,"type":"minor"}],"swarm":"skull","action":"move","text":"Change every Space Marine's facing."},</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -2581,23 +2833,23 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="C3" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E3" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F3" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G32" si="0">"{"""&amp;A$1&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"&amp;C3&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;""","""&amp;E$1&amp;""":"""&amp;E3&amp;""","""&amp;F$1&amp;""":"""&amp;F3&amp;"""},"</f>
-        <v>{"id":2,"name":"Chaos of Battle","spawn":{"threat":4,"type":"minor"},,"swarm":"skull","action":"move","text":"Change every Space Marine's facing."},</v>
+        <f t="shared" ref="G3:G31" si="0">"{"""&amp;A$1&amp;""":"&amp;A3&amp;","""&amp;B$1&amp;""":"""&amp;B3&amp;""","""&amp;C$1&amp;""":"&amp;C3&amp;","""&amp;D$1&amp;""":"""&amp;D3&amp;""","""&amp;E$1&amp;""":"""&amp;E3&amp;""","""&amp;F$1&amp;""":"""&amp;F3&amp;"""},"</f>
+        <v>{"id":2,"name":"Chaos of Battle","spawn":[{"threat":4,"type":"minor"},{"threat":2,"type":"minor"}],"swarm":"skull","action":"move","text":"Change every Space Marine's facing."},</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -2605,23 +2857,23 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="C4" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D4" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F4" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":3,"name":"Cleansing Flames","spawn":{"threat":3,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a SPace Marine and roll a die. If you roll a [skull] slay 2 Genestealers engaged with him (of your choice)."},</v>
+        <v>{"id":3,"name":"Cleansing Flames","spawn":[{"threat":3,"type":"major"},{"threat":1,"type":"major"}],"swarm":"tongue","action":"move","text":"Instinct: Choose a SPace Marine and roll a die. If you roll a [skull] slay 2 Genestealers engaged with him (of your choice)."},</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -2629,23 +2881,23 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="C5" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E5" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F5" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":4,"name":"Enter Formation","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"Each time a player resolves a Move + Activate action card next round, he may first place 1 Support Token in any Space Marine."},</v>
+        <v>{"id":4,"name":"Enter Formation","spawn":[{"threat":3,"type":"major"},{"threat":2,"type":"major"}],"swarm":"claw","action":"move","text":"Each time a player resolves a Move + Activate action card next round, he may first place 1 Support Token in any Space Marine."},</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -2653,23 +2905,23 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="C6" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F6" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":5,"name":"Evasion","spawn":{"threat":2,"type":"minor"},,"swarm":"skull","action":"flank","text":"When a player resolves an Attack Action next round, he may only attack with 1 Space Marine of that Combat Team (instead of both)."},</v>
+        <v>{"id":5,"name":"Evasion","spawn":[{"threat":2,"type":"minor"},{"threat":4,"type":"minor"}],"swarm":"skull","action":"flank","text":"When a player resolves an Attack Action next round, he may only attack with 1 Space Marine of that Combat Team (instead of both)."},</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -2677,23 +2929,23 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="C7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E7" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F7" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":6,"name":"Flanking Manoeuvre","spawn":{"threat":4,"type":"minor"},,"swarm":"null","action":"null","text":"Move all Swarms so that they are behind their engaged Space Marine."},</v>
+        <v>{"id":6,"name":"Flanking Manoeuvre","spawn":[{"threat":4,"type":"minor"},{"threat":3,"type":"minor"}],"swarm":"null","action":"null","text":"Move all Swarms so that they are behind their engaged Space Marine."},</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -2701,23 +2953,23 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C8" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D8" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E8" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F8" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":7,"name":"For my Battle Brothers!","spawn":{"threat":4,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine that has at least 1 Support TOken (if able). Discard 1 Support Token form him and 1 Genestealer engaged with him (of your choice)."},</v>
+        <v>{"id":7,"name":"For my Battle Brothers!","spawn":[{"threat":4,"type":"major"},{"threat":3,"type":"minor"}],"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine that has at least 1 Support TOken (if able). Discard 1 Support Token form him and 1 Genestealer engaged with him (of your choice)."},</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -2725,23 +2977,23 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E9" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":8,"name":"For my Battle Brothers!","spawn":{"threat":4,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine that has at least 1 Support TOken (if able). Discard 1 Support Token form him and 1 Genestealer engaged with him (of your choice)."},</v>
+        <v>{"id":8,"name":"For my Battle Brothers!","spawn":[{"threat":4,"type":"major"},{"threat":3,"type":"minor"}],"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine that has at least 1 Support TOken (if able). Discard 1 Support Token form him and 1 Genestealer engaged with him (of your choice)."},</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -2749,23 +3001,23 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":9,"name":"Full Scan","spawn":{"threat":4,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a blip pile. DIscard the top card of the chosen pile."},</v>
+        <v>{"id":9,"name":"Full Scan","spawn":[{"threat":4,"type":"major"},{"threat":2,"type":"major"}],"swarm":"tongue","action":"move","text":"Instinct: Choose a blip pile. DIscard the top card of the chosen pile."},</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -2773,23 +3025,23 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="C11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D11" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E11" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":10,"name":"Full Scan","spawn":{"threat":4,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a blip pile. DIscard the top card of the chosen pile."},</v>
+        <v>{"id":10,"name":"Full Scan","spawn":[{"threat":4,"type":"major"},{"threat":2,"type":"major"}],"swarm":"tongue","action":"move","text":"Instinct: Choose a blip pile. DIscard the top card of the chosen pile."},</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -2797,23 +3049,23 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D12" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E12" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F12" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":11,"name":"Gun Jam","spawn":{"threat":2,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Combat Team that did not reveal an Attack Action this round. Next round,  that combat team may not play an Attack Action card."},</v>
+        <v>{"id":11,"name":"Gun Jam","spawn":[{"threat":2,"type":"major"},{"threat":4,"type":"minor"}],"swarm":"tail","action":"move","text":"Instinct: Choose a Combat Team that did not reveal an Attack Action this round. Next round,  that combat team may not play an Attack Action card."},</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -2821,23 +3073,23 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="D13" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E13" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F13" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":12,"name":"Gun Jam","spawn":{"threat":2,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Combat Team that did not reveal an Attack Action this round. Next round,  that combat team may not play an Attack Action card."},</v>
+        <v>{"id":12,"name":"Gun Jam","spawn":[{"threat":2,"type":"major"},{"threat":4,"type":"minor"}],"swarm":"tail","action":"move","text":"Instinct: Choose a Combat Team that did not reveal an Attack Action this round. Next round,  that combat team may not play an Attack Action card."},</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -2845,23 +3097,23 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C14" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F14" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":13,"name":"Out of Thin Air","spawn":{"threat":3,"type":"minor"},,"swarm":"skull","action":"flank","text":"Instince: Choose a Space Marine. Spawn 2 Genestealers behind him."},</v>
+        <v>{"id":13,"name":"Out of Thin Air","spawn":[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}],"swarm":"skull","action":"flank","text":"Instince: Choose a Space Marine. Spawn 2 Genestealers behind him."},</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -2869,23 +3121,23 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="C15" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D15" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E15" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F15" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":14,"name":"Out of Thin Air","spawn":{"threat":3,"type":"minor"},,"swarm":"skull","action":"flank","text":"Instince: Choose a Space Marine. Spawn 2 Genestealers behind him."},</v>
+        <v>{"id":14,"name":"Out of Thin Air","spawn":[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}],"swarm":"skull","action":"flank","text":"Instince: Choose a Space Marine. Spawn 2 Genestealers behind him."},</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -2893,23 +3145,23 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E16" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":15,"name":"Outnumbered","spawn":{"threat":3,"type":"minor"},,"swarm":"claw","action":"flank","text":"Discard all Support Tokens from each Space Marine that is engaged with at least 1 Swarm."},</v>
+        <v>{"id":15,"name":"Outnumbered","spawn":[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}],"swarm":"claw","action":"flank","text":"Discard all Support Tokens from each Space Marine that is engaged with at least 1 Swarm."},</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -2917,23 +3169,23 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="C17" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E17" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F17" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":16,"name":"Psychic Assault","spawn":{"threat":4,"type":"minor"},,"swarm":"tongue","action":"flank","text":"Instinct: Choose a Space Marine and roll a die. If you roll a [0] or [1], the space marine is slain."},</v>
+        <v>{"id":16,"name":"Psychic Assault","spawn":[{"threat":4,"type":"minor"},{"threat":3,"type":"minor"}],"swarm":"tongue","action":"flank","text":"Instinct: Choose a Space Marine and roll a die. If you roll a [0] or [1], the space marine is slain."},</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -2941,23 +3193,23 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="C18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E18" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F18" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":17,"name":"Quick Instincts","spawn":{"threat":4,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: CHoose a Space Marine. He may immediately make 1 attack."},</v>
+        <v>{"id":17,"name":"Quick Instincts","spawn":[{"threat":4,"type":"major"},{"threat":3,"type":"major"}],"swarm":"tongue","action":"move","text":"Instinct: CHoose a Space Marine. He may immediately make 1 attack."},</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -2965,23 +3217,23 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="C19" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E19" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F19" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":18,"name":"Rescue Space Marine","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"Instinct: Choose a Space Marine that has been slain belonging to a non-eliminated Combat Team. Place the Space Marine card at the bottom of the formation facing the right."},</v>
+        <v>{"id":18,"name":"Rescue Space Marine","spawn":[{"threat":3,"type":"major"},{"threat":4,"type":"major"}],"swarm":"claw","action":"move","text":"Instinct: Choose a Space Marine that has been slain belonging to a non-eliminated Combat Team. Place the Space Marine card at the bottom of the formation facing the right."},</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -2989,23 +3241,23 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="C20" t="s">
         <v>217</v>
       </c>
       <c r="D20" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="E20" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F20" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":19,"name":"Resupply","spawn":{"threat":4,"type":"major"},,"swarm":"skull","action":"move","text":"Instinct: Choose a Space Marine. Moev all Support Tokens to him from all other Space Marines."},</v>
+        <v>{"id":19,"name":"Resupply","spawn":[{"threat":4,"type":"major"},{"threat":2,"type":"minor"}],"swarm":"skull","action":"move","text":"Instinct: Choose a Space Marine. Moev all Support Tokens to him from all other Space Marines."},</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -3013,23 +3265,23 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D21" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E21" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":20,"name":"Rewarded Faith","spawn":{"threat":1,"type":"major"},,"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine. You may discard any number of Support Tokens from him to slay an equal number of Genestealers engaged with him."},</v>
+        <v>{"id":20,"name":"Rewarded Faith","spawn":[{"threat":1,"type":"major"},{"threat":4,"type":"minor"}],"swarm":"tail","action":"move","text":"Instinct: Choose a Space Marine. You may discard any number of Support Tokens from him to slay an equal number of Genestealers engaged with him."},</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -3037,23 +3289,23 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="C22" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D22" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="E22" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F22" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":21,"name":"Second Wind","spawn":{"threat":2,"type":"major"},,"swarm":"tongue","action":"move","text":"Instinct: Choose a Space Marine. Each time he rolls a [0] while defending next round, the attack misses."},</v>
+        <v>{"id":21,"name":"Second Wind","spawn":[{"threat":2,"type":"major"},{"threat":4,"type":"major"}],"swarm":"tongue","action":"move","text":"Instinct: Choose a Space Marine. Each time he rolls a [0] while defending next round, the attack misses."},</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -3061,23 +3313,23 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C23" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E23" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":22,"name":"Secret Route","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"If there is a Door terrain card in the formation,  place 2 Support Tokens on it."},</v>
+        <v>{"id":22,"name":"Secret Route","spawn":[{"threat":3,"type":"major"},{"threat":1,"type":"major"}],"swarm":"claw","action":"move","text":"If there is a Door terrain card in the formation,  place 2 Support Tokens on it."},</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -3085,23 +3337,23 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="C24" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F24" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":23,"name":"Secret Route","spawn":{"threat":3,"type":"major"},,"swarm":"claw","action":"move","text":"If there is a Door terrain card in the formation,  place 2 Support Tokens on it."},</v>
+        <v>{"id":23,"name":"Secret Route","spawn":[{"threat":3,"type":"major"},{"threat":1,"type":"major"}],"swarm":"claw","action":"move","text":"If there is a Door terrain card in the formation,  place 2 Support Tokens on it."},</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -3109,23 +3361,23 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C25" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D25" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E25" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F25" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":24,"name":"Stalking from the Shadows","spawn":{"threat":4,"type":"major"},,"swarm":"head","action":"move","text":"Instinct: Choose a Space Marine with at least 1 Support Token. DIscard all his Support Tokens."},</v>
+        <v>{"id":24,"name":"Stalking from the Shadows","spawn":[{"threat":4,"type":"major"},{"threat":1,"type":"major"}],"swarm":"head","action":"move","text":"Instinct: Choose a Space Marine with at least 1 Support Token. DIscard all his Support Tokens."},</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -3133,23 +3385,23 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="C26" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D26" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E26" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F26" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":25,"name":"Stalking from the Shadows","spawn":{"threat":4,"type":"major"},,"swarm":"head","action":"move","text":"Instinct: Choose a Space Marine with at least 1 Support Token. DIscard all his Support Tokens."},</v>
+        <v>{"id":25,"name":"Stalking from the Shadows","spawn":[{"threat":4,"type":"major"},{"threat":1,"type":"major"}],"swarm":"head","action":"move","text":"Instinct: Choose a Space Marine with at least 1 Support Token. DIscard all his Support Tokens."},</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -3157,23 +3409,23 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="C27" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="D27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="E27" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="F27" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":26,"name":"Surrounded","spawn":{"threat":4,"type":"minor"},,"swarm":"null","action":"null","text":"Instinct: Choose a Space Marine. Move all Genestealers (from every position) to the chosen Space Marine's position (do not change their side)."},</v>
+        <v>{"id":26,"name":"Surrounded","spawn":[{"threat":4,"type":"minor"},{"threat":3,"type":"minor"}],"swarm":"null","action":"null","text":"Instinct: Choose a Space Marine. Move all Genestealers (from every position) to the chosen Space Marine's position (do not change their side)."},</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -3181,23 +3433,23 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="C28" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="E28" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="F28" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":27,"name":"Temporary Sanctuary","spawn":{"threat":4,"type":"major"},,"swarm":"claw","action":"move","text":"Instinct: Choose a swarm of Genestealers. Shuffle all cards from the chose swarm into the smallest blip pile."},</v>
+        <v>{"id":27,"name":"Temporary Sanctuary","spawn":[{"threat":4,"type":"major"},{"threat":3,"type":"major"}],"swarm":"claw","action":"move","text":"Instinct: Choose a swarm of Genestealers. Shuffle all cards from the chose swarm into the smallest blip pile."},</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -3205,23 +3457,23 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D29" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E29" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F29" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":28,"name":"The Swarm","spawn":{"threat":2,"type":"minor"},,"swarm":"tail","action":"flank","text":"Place 2 Genestealer cards into each blip pile (from the Genestealer deck)."},</v>
+        <v>{"id":28,"name":"The Swarm","spawn":[{"threat":2,"type":"minor"},{"threat":3,"type":"minor"}],"swarm":"tail","action":"flank","text":"Place 2 Genestealer cards into each blip pile (from the Genestealer deck)."},</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -3229,23 +3481,23 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="D30" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E30" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F30" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":29,"name":"The Swarm","spawn":{"threat":2,"type":"minor"},,"swarm":"tail","action":"flank","text":"Place 2 Genestealer cards into each blip pile (from the Genestealer deck)."},</v>
+        <v>{"id":29,"name":"The Swarm","spawn":[{"threat":2,"type":"minor"},{"threat":3,"type":"minor"}],"swarm":"tail","action":"flank","text":"Place 2 Genestealer cards into each blip pile (from the Genestealer deck)."},</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -3253,28 +3505,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="C31" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D31" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="E31" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="F31" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>{"id":30,"name":"They're Everywhere!","spawn":{"threat":3,"type":"minor"},,"swarm":"tail","action":"flank","text":"Spawn 1 Genestealer in front of each Space Marine that is not enagaged with a swarm."},</v>
+        <v>{"id":30,"name":"They're Everywhere!","spawn":[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}],"swarm":"tail","action":"flank","text":"Spawn 1 Genestealer in front of each Space Marine that is not enagaged with a swarm."},</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="G32" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -3287,557 +3539,797 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E31"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C2">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E2" t="str">
-        <f>"{""threat"":"&amp;A2&amp;",""type"":"""&amp;B2&amp;"""},"</f>
-        <v>{"threat":4,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <f>"{""threat"":"&amp;A2&amp;",""type"":"""&amp;B2&amp;"""}"</f>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="F2" t="str">
+        <f>"{""threat"":"&amp;C2&amp;",""type"":"""&amp;D2&amp;"""}"</f>
+        <v>{"threat":2,"type":"minor"}</v>
+      </c>
+      <c r="G2" t="str">
+        <f>"["&amp;E2&amp;","&amp;F2&amp;"]"</f>
+        <v>[{"threat":4,"type":"minor"},{"threat":2,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E31" si="0">"{""threat"":"&amp;A3&amp;",""type"":"""&amp;B3&amp;"""},"</f>
-        <v>{"threat":4,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" ref="E3:E31" si="0">"{""threat"":"&amp;A3&amp;",""type"":"""&amp;B3&amp;"""}"</f>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="F3" t="str">
+        <f t="shared" ref="F3:F31" si="1">"{""threat"":"&amp;C3&amp;",""type"":"""&amp;D3&amp;"""}"</f>
+        <v>{"threat":2,"type":"minor"}</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G31" si="2">"["&amp;E3&amp;","&amp;F3&amp;"]"</f>
+        <v>[{"threat":4,"type":"minor"},{"threat":2,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"major"}</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":1,"type":"major"}</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"major"},{"threat":1,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"major"}</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":2,"type":"major"}</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"major"},{"threat":2,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C6">
         <v>4</v>
       </c>
       <c r="D6" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":2,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":2,"type":"minor"}</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":2,"type":"minor"},{"threat":4,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E7" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"minor"},{"threat":3,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C8">
         <v>3</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E8" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="G8" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":3,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C9">
         <v>3</v>
       </c>
       <c r="D9" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E9" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":3,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>4</v>
       </c>
       <c r="B10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C10">
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E10" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":2,"type":"major"}</v>
+      </c>
+      <c r="G10" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":2,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E11" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":2,"type":"major"}</v>
+      </c>
+      <c r="G11" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":2,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E12" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":2,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":2,"type":"major"}</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G12" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":2,"type":"major"},{"threat":4,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C13">
         <v>4</v>
       </c>
       <c r="D13" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E13" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":2,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":2,"type":"major"}</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G13" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":2,"type":"major"},{"threat":4,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C14">
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E14" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G14" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3</v>
       </c>
       <c r="B15" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C15">
         <v>4</v>
       </c>
       <c r="D15" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E15" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G15" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
       <c r="B16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C16">
         <v>4</v>
       </c>
       <c r="D16" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E16" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G16" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>4</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E17" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="G17" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"minor"},{"threat":3,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>4</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C18">
         <v>3</v>
       </c>
       <c r="D18" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E18" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"major"}</v>
+      </c>
+      <c r="G18" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":3,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>3</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C19">
         <v>4</v>
       </c>
       <c r="D19" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E19" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"major"}</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"major"},{"threat":4,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>4</v>
       </c>
       <c r="B20" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C20">
         <v>2</v>
       </c>
       <c r="D20" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E20" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":2,"type":"minor"}</v>
+      </c>
+      <c r="G20" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":2,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1</v>
       </c>
       <c r="B21" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C21">
         <v>4</v>
       </c>
       <c r="D21" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E21" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":1,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":1,"type":"major"}</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":1,"type":"major"},{"threat":4,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
       <c r="B22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C22">
         <v>4</v>
       </c>
       <c r="D22" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E22" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":2,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":2,"type":"major"}</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="G22" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":2,"type":"major"},{"threat":4,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>3</v>
       </c>
       <c r="B23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E23" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"major"}</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":1,"type":"major"}</v>
+      </c>
+      <c r="G23" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"major"},{"threat":1,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>3</v>
       </c>
       <c r="B24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C24">
         <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E24" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":3,"type":"major"}</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":1,"type":"major"}</v>
+      </c>
+      <c r="G24" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"major"},{"threat":1,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>4</v>
       </c>
       <c r="B25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C25">
         <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E25" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":1,"type":"major"}</v>
+      </c>
+      <c r="G25" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":1,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>4</v>
       </c>
       <c r="B26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C26">
         <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E26" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":1,"type":"major"}</v>
+      </c>
+      <c r="G26" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":1,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>4</v>
       </c>
       <c r="B27" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C27">
         <v>3</v>
       </c>
       <c r="D27" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E27" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="G27" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"minor"},{"threat":3,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C28">
         <v>3</v>
       </c>
       <c r="D28" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="E28" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":4,"type":"major"},</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":4,"type":"major"}</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"major"}</v>
+      </c>
+      <c r="G28" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":4,"type":"major"},{"threat":3,"type":"major"}]</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C29">
         <v>3</v>
       </c>
       <c r="D29" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E29" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":2,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":2,"type":"minor"}</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="G29" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":2,"type":"minor"},{"threat":3,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2</v>
       </c>
       <c r="B30" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C30">
         <v>3</v>
       </c>
       <c r="D30" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E30" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":2,"type":"minor"},</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+        <v>{"threat":2,"type":"minor"}</v>
+      </c>
+      <c r="F30" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="G30" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":2,"type":"minor"},{"threat":3,"type":"minor"}]</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>3</v>
       </c>
       <c r="B31" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="C31">
         <v>4</v>
       </c>
       <c r="D31" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
       <c r="E31" t="str">
         <f t="shared" si="0"/>
-        <v>{"threat":3,"type":"minor"},</v>
+        <v>{"threat":3,"type":"minor"}</v>
+      </c>
+      <c r="F31" t="str">
+        <f t="shared" si="1"/>
+        <v>{"threat":4,"type":"minor"}</v>
+      </c>
+      <c r="G31" t="str">
+        <f t="shared" si="2"/>
+        <v>[{"threat":3,"type":"minor"},{"threat":4,"type":"minor"}]</v>
       </c>
     </row>
   </sheetData>
